--- a/figures/resources/pixels.xlsx
+++ b/figures/resources/pixels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tischer/Documents/training-resources/figures/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255D2A7A-4D5F-FF4E-9908-79397AD8E490}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF4F8FE-8341-A940-8BCC-3E66FBB22D76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{AFB592CA-EABC-C547-8EDD-0658AD58DA5C}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{AFB592CA-EABC-C547-8EDD-0658AD58DA5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -434,17 +434,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55615056-DDA6-7547-9E31-DDAB8BE0B80D}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:V22"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="D1" zoomScale="86" zoomScaleNormal="100" zoomScalePageLayoutView="86" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="21.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="21.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1"/>
     <col min="2" max="16384" width="3.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="1" customFormat="1" ht="21.5" customHeight="1">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>0</v>
@@ -510,243 +510,243 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" ht="21.5" customHeight="1">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J2" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K2" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L2" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M2" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O2" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P2" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R2" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S2" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T2" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U2" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V2" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="21.5" customHeight="1">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G3" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H3" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I3" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K3" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L3" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M3" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N3" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O3" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P3" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="Q3" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R3" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S3" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T3" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U3" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V3" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="21.5" customHeight="1">
       <c r="A4" s="4">
         <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H4" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I4" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J4" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K4" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="L4" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M4" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N4" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="O4" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P4" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R4" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="S4" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T4" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U4" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V4" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="21.5" customHeight="1">
       <c r="A5" s="4">
         <v>3</v>
       </c>
       <c r="B5" s="5">
+        <v>2</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="5">
+        <v>2</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2</v>
+      </c>
+      <c r="J5" s="5">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
-        <v>4</v>
-      </c>
-      <c r="D5" s="5">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5">
-        <v>5</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="K5" s="5">
         <v>6</v>
-      </c>
-      <c r="H5" s="5">
-        <v>6</v>
-      </c>
-      <c r="I5" s="5">
-        <v>7</v>
-      </c>
-      <c r="J5" s="5">
-        <v>7</v>
-      </c>
-      <c r="K5" s="5">
-        <v>7</v>
       </c>
       <c r="L5" s="5">
         <v>7</v>
@@ -755,1188 +755,1188 @@
         <v>7</v>
       </c>
       <c r="N5" s="5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O5" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P5" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q5" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R5" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S5" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T5" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U5" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V5" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="21.5" customHeight="1">
       <c r="A6" s="4">
         <v>4</v>
       </c>
       <c r="B6" s="5">
+        <v>2</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2</v>
+      </c>
+      <c r="F6" s="5">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
-        <v>4</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5">
-        <v>6</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="I6" s="5">
+        <v>13</v>
+      </c>
+      <c r="J6" s="5">
+        <v>29</v>
+      </c>
+      <c r="K6" s="5">
+        <v>48</v>
+      </c>
+      <c r="L6" s="5">
+        <v>42</v>
+      </c>
+      <c r="M6" s="5">
+        <v>41</v>
+      </c>
+      <c r="N6" s="5">
+        <v>42</v>
+      </c>
+      <c r="O6" s="5">
+        <v>29</v>
+      </c>
+      <c r="P6" s="5">
         <v>7</v>
       </c>
-      <c r="H6" s="5">
-        <v>8</v>
-      </c>
-      <c r="I6" s="5">
-        <v>8</v>
-      </c>
-      <c r="J6" s="5">
-        <v>9</v>
-      </c>
-      <c r="K6" s="5">
-        <v>9</v>
-      </c>
-      <c r="L6" s="5">
-        <v>8</v>
-      </c>
-      <c r="M6" s="5">
-        <v>8</v>
-      </c>
-      <c r="N6" s="5">
-        <v>8</v>
-      </c>
-      <c r="O6" s="5">
-        <v>8</v>
-      </c>
-      <c r="P6" s="5">
-        <v>9</v>
-      </c>
       <c r="Q6" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R6" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="S6" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T6" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U6" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V6" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="21.5" customHeight="1">
       <c r="A7" s="4">
         <v>5</v>
       </c>
       <c r="B7" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G7" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H7" s="5">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I7" s="5">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="J7" s="5">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="K7" s="5">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="L7" s="5">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="M7" s="5">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="N7" s="5">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="O7" s="5">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="P7" s="5">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="R7" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="S7" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="T7" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U7" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V7" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="21.5" customHeight="1">
       <c r="A8" s="4">
         <v>6</v>
       </c>
       <c r="B8" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D8" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F8" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G8" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" s="5">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I8" s="5">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="J8" s="5">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="K8" s="5">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="L8" s="5">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="M8" s="5">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="N8" s="5">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="O8" s="5">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="P8" s="5">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="5">
         <v>19</v>
       </c>
       <c r="R8" s="5">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="S8" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="T8" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="U8" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V8" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="21.5" customHeight="1">
       <c r="A9" s="4">
         <v>7</v>
       </c>
       <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
+        <v>2</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
         <v>5</v>
       </c>
-      <c r="C9" s="5">
-        <v>5</v>
-      </c>
-      <c r="D9" s="5">
+      <c r="G9" s="5">
+        <v>34</v>
+      </c>
+      <c r="H9" s="5">
+        <v>42</v>
+      </c>
+      <c r="I9" s="5">
+        <v>45</v>
+      </c>
+      <c r="J9" s="5">
+        <v>48</v>
+      </c>
+      <c r="K9" s="5">
+        <v>49</v>
+      </c>
+      <c r="L9" s="5">
+        <v>53</v>
+      </c>
+      <c r="M9" s="5">
+        <v>65</v>
+      </c>
+      <c r="N9" s="5">
+        <v>55</v>
+      </c>
+      <c r="O9" s="5">
+        <v>50</v>
+      </c>
+      <c r="P9" s="5">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>37</v>
+      </c>
+      <c r="R9" s="5">
         <v>6</v>
       </c>
-      <c r="E9" s="5">
-        <v>7</v>
-      </c>
-      <c r="F9" s="5">
-        <v>10</v>
-      </c>
-      <c r="G9" s="5">
-        <v>21</v>
-      </c>
-      <c r="H9" s="5">
-        <v>39</v>
-      </c>
-      <c r="I9" s="5">
-        <v>32</v>
-      </c>
-      <c r="J9" s="5">
-        <v>23</v>
-      </c>
-      <c r="K9" s="5">
-        <v>22</v>
-      </c>
-      <c r="L9" s="5">
-        <v>22</v>
-      </c>
-      <c r="M9" s="5">
-        <v>25</v>
-      </c>
-      <c r="N9" s="5">
-        <v>30</v>
-      </c>
-      <c r="O9" s="5">
-        <v>36</v>
-      </c>
-      <c r="P9" s="5">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>41</v>
-      </c>
-      <c r="R9" s="5">
-        <v>32</v>
-      </c>
       <c r="S9" s="5">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="T9" s="5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="U9" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V9" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:27" ht="21.5" customHeight="1">
       <c r="A10" s="4">
         <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F10" s="5">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G10" s="5">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H10" s="5">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="I10" s="5">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="J10" s="5">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="K10" s="5">
+        <v>55</v>
+      </c>
+      <c r="L10" s="5">
+        <v>52</v>
+      </c>
+      <c r="M10" s="5">
         <v>57</v>
       </c>
-      <c r="L10" s="5">
-        <v>45</v>
-      </c>
-      <c r="M10" s="5">
-        <v>45</v>
-      </c>
       <c r="N10" s="5">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="O10" s="5">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="P10" s="5">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="Q10" s="5">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="R10" s="5">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="S10" s="5">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="T10" s="5">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="U10" s="5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="V10" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="21.5" customHeight="1">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D11" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E11" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F11" s="5">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="G11" s="5">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="H11" s="5">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="I11" s="5">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="J11" s="5">
-        <v>178</v>
+        <v>50</v>
       </c>
       <c r="K11" s="5">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="L11" s="5">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="M11" s="5">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="N11" s="5">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="O11" s="5">
-        <v>154</v>
+        <v>45</v>
       </c>
       <c r="P11" s="5">
-        <v>132</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="5">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="R11" s="5">
-        <v>82</v>
+        <v>27</v>
       </c>
       <c r="S11" s="5">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="T11" s="5">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="U11" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V11" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="21.5" customHeight="1">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D12" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="F12" s="5">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G12" s="5">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="H12" s="5">
-        <v>187</v>
+        <v>53</v>
       </c>
       <c r="I12" s="5">
-        <v>238</v>
+        <v>55</v>
       </c>
       <c r="J12" s="5">
-        <v>249</v>
+        <v>53</v>
       </c>
       <c r="K12" s="5">
-        <v>221</v>
+        <v>47</v>
       </c>
       <c r="L12" s="5">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="M12" s="5">
-        <v>201</v>
+        <v>53</v>
       </c>
       <c r="N12" s="5">
-        <v>227</v>
+        <v>48</v>
       </c>
       <c r="O12" s="5">
-        <v>219</v>
+        <v>49</v>
       </c>
       <c r="P12" s="5">
-        <v>212</v>
+        <v>51</v>
       </c>
       <c r="Q12" s="5">
-        <v>186</v>
+        <v>49</v>
       </c>
       <c r="R12" s="5">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="S12" s="5">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="T12" s="5">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="U12" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V12" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="21.5" customHeight="1">
       <c r="A13" s="4">
         <v>11</v>
       </c>
       <c r="B13" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5">
+        <v>27</v>
+      </c>
+      <c r="G13" s="5">
+        <v>53</v>
+      </c>
+      <c r="H13" s="5">
+        <v>54</v>
+      </c>
+      <c r="I13" s="5">
+        <v>53</v>
+      </c>
+      <c r="J13" s="5">
+        <v>47</v>
+      </c>
+      <c r="K13" s="5">
+        <v>46</v>
+      </c>
+      <c r="L13" s="5">
+        <v>54</v>
+      </c>
+      <c r="M13" s="5">
+        <v>48</v>
+      </c>
+      <c r="N13" s="5">
+        <v>43</v>
+      </c>
+      <c r="O13" s="5">
+        <v>42</v>
+      </c>
+      <c r="P13" s="5">
+        <v>55</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>58</v>
+      </c>
+      <c r="R13" s="5">
+        <v>46</v>
+      </c>
+      <c r="S13" s="5">
         <v>6</v>
       </c>
-      <c r="E13" s="5">
-        <v>9</v>
-      </c>
-      <c r="F13" s="5">
-        <v>21</v>
-      </c>
-      <c r="G13" s="5">
-        <v>67</v>
-      </c>
-      <c r="H13" s="5">
-        <v>137</v>
-      </c>
-      <c r="I13" s="5">
-        <v>203</v>
-      </c>
-      <c r="J13" s="5">
-        <v>237</v>
-      </c>
-      <c r="K13" s="5">
-        <v>243</v>
-      </c>
-      <c r="L13" s="5">
-        <v>240</v>
-      </c>
-      <c r="M13" s="5">
-        <v>240</v>
-      </c>
-      <c r="N13" s="5">
-        <v>214</v>
-      </c>
-      <c r="O13" s="5">
-        <v>192</v>
-      </c>
-      <c r="P13" s="5">
-        <v>202</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>177</v>
-      </c>
-      <c r="R13" s="5">
-        <v>106</v>
-      </c>
-      <c r="S13" s="5">
-        <v>51</v>
-      </c>
       <c r="T13" s="5">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="U13" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="V13" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="21.5" customHeight="1">
       <c r="A14" s="4">
         <v>12</v>
       </c>
       <c r="B14" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="5">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3</v>
+      </c>
+      <c r="F14" s="5">
+        <v>26</v>
+      </c>
+      <c r="G14" s="5">
+        <v>45</v>
+      </c>
+      <c r="H14" s="5">
+        <v>53</v>
+      </c>
+      <c r="I14" s="5">
+        <v>50</v>
+      </c>
+      <c r="J14" s="5">
+        <v>48</v>
+      </c>
+      <c r="K14" s="5">
+        <v>45</v>
+      </c>
+      <c r="L14" s="5">
+        <v>45</v>
+      </c>
+      <c r="M14" s="5">
+        <v>46</v>
+      </c>
+      <c r="N14" s="5">
+        <v>51</v>
+      </c>
+      <c r="O14" s="5">
+        <v>51</v>
+      </c>
+      <c r="P14" s="5">
+        <v>58</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>58</v>
+      </c>
+      <c r="R14" s="5">
+        <v>43</v>
+      </c>
+      <c r="S14" s="5">
         <v>6</v>
       </c>
-      <c r="E14" s="5">
-        <v>8</v>
-      </c>
-      <c r="F14" s="5">
-        <v>11</v>
-      </c>
-      <c r="G14" s="5">
-        <v>21</v>
-      </c>
-      <c r="H14" s="5">
-        <v>47</v>
-      </c>
-      <c r="I14" s="5">
-        <v>97</v>
-      </c>
-      <c r="J14" s="5">
-        <v>155</v>
-      </c>
-      <c r="K14" s="5">
-        <v>189</v>
-      </c>
-      <c r="L14" s="5">
-        <v>183</v>
-      </c>
-      <c r="M14" s="5">
-        <v>140</v>
-      </c>
-      <c r="N14" s="5">
-        <v>107</v>
-      </c>
-      <c r="O14" s="5">
-        <v>95</v>
-      </c>
-      <c r="P14" s="5">
-        <v>112</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>107</v>
-      </c>
-      <c r="R14" s="5">
-        <v>69</v>
-      </c>
-      <c r="S14" s="5">
-        <v>34</v>
-      </c>
       <c r="T14" s="5">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="U14" s="5">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="V14" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="21.5" customHeight="1">
       <c r="A15" s="4">
         <v>13</v>
       </c>
       <c r="B15" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D15" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E15" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F15" s="5">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G15" s="5">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="H15" s="5">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="I15" s="5">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="J15" s="5">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="K15" s="5">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="L15" s="5">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="M15" s="5">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="N15" s="5">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="O15" s="5">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="P15" s="5">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="Q15" s="5">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="R15" s="5">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="S15" s="5">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="T15" s="5">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U15" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="V15" s="5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="21.5" customHeight="1">
       <c r="A16" s="4">
         <v>14</v>
       </c>
       <c r="B16" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C16" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D16" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16" s="5">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G16" s="5">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="H16" s="5">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="I16" s="5">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="J16" s="5">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="K16" s="5">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="L16" s="5">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="M16" s="5">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="N16" s="5">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="O16" s="5">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="P16" s="5">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="Q16" s="5">
-        <v>13</v>
+        <v>49</v>
       </c>
       <c r="R16" s="5">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="S16" s="5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="T16" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U16" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V16" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="21.5" customHeight="1">
       <c r="A17" s="4">
         <v>15</v>
       </c>
       <c r="B17" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D17" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F17" s="5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G17" s="5">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="H17" s="5">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="I17" s="5">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="J17" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="K17" s="5">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="L17" s="5">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="M17" s="5">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="N17" s="5">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="O17" s="5">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P17" s="5">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="Q17" s="5">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="R17" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S17" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T17" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="U17" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V17" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="21.5" customHeight="1">
       <c r="A18" s="4">
         <v>16</v>
       </c>
       <c r="B18" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D18" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E18" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H18" s="5">
+        <v>11</v>
+      </c>
+      <c r="I18" s="5">
+        <v>45</v>
+      </c>
+      <c r="J18" s="5">
+        <v>52</v>
+      </c>
+      <c r="K18" s="5">
+        <v>53</v>
+      </c>
+      <c r="L18" s="5">
+        <v>47</v>
+      </c>
+      <c r="M18" s="5">
+        <v>46</v>
+      </c>
+      <c r="N18" s="5">
+        <v>46</v>
+      </c>
+      <c r="O18" s="5">
+        <v>44</v>
+      </c>
+      <c r="P18" s="5">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="5">
         <v>6</v>
       </c>
-      <c r="I18" s="5">
-        <v>8</v>
-      </c>
-      <c r="J18" s="5">
-        <v>8</v>
-      </c>
-      <c r="K18" s="5">
-        <v>8</v>
-      </c>
-      <c r="L18" s="5">
-        <v>9</v>
-      </c>
-      <c r="M18" s="5">
-        <v>9</v>
-      </c>
-      <c r="N18" s="5">
-        <v>9</v>
-      </c>
-      <c r="O18" s="5">
-        <v>8</v>
-      </c>
-      <c r="P18" s="5">
-        <v>8</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>8</v>
-      </c>
       <c r="R18" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S18" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T18" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U18" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V18" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="21.5" customHeight="1">
       <c r="A19" s="4">
         <v>17</v>
       </c>
       <c r="B19" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5">
+        <v>2</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>3</v>
+      </c>
+      <c r="I19" s="5">
+        <v>19</v>
+      </c>
+      <c r="J19" s="5">
+        <v>43</v>
+      </c>
+      <c r="K19" s="5">
+        <v>52</v>
+      </c>
+      <c r="L19" s="5">
+        <v>54</v>
+      </c>
+      <c r="M19" s="5">
+        <v>48</v>
+      </c>
+      <c r="N19" s="5">
+        <v>36</v>
+      </c>
+      <c r="O19" s="5">
+        <v>19</v>
+      </c>
+      <c r="P19" s="5">
         <v>4</v>
       </c>
-      <c r="D19" s="5">
-        <v>4</v>
-      </c>
-      <c r="E19" s="5">
-        <v>4</v>
-      </c>
-      <c r="F19" s="5">
-        <v>5</v>
-      </c>
-      <c r="G19" s="5">
-        <v>5</v>
-      </c>
-      <c r="H19" s="5">
-        <v>5</v>
-      </c>
-      <c r="I19" s="5">
-        <v>6</v>
-      </c>
-      <c r="J19" s="5">
-        <v>6</v>
-      </c>
-      <c r="K19" s="5">
-        <v>7</v>
-      </c>
-      <c r="L19" s="5">
-        <v>7</v>
-      </c>
-      <c r="M19" s="5">
-        <v>7</v>
-      </c>
-      <c r="N19" s="5">
-        <v>7</v>
-      </c>
-      <c r="O19" s="5">
-        <v>6</v>
-      </c>
-      <c r="P19" s="5">
-        <v>6</v>
-      </c>
       <c r="Q19" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R19" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S19" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T19" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="U19" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V19" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="21.5" customHeight="1">
       <c r="A20" s="4">
         <v>18</v>
       </c>
       <c r="B20" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C20" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H20" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I20" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J20" s="5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K20" s="5">
+        <v>17</v>
+      </c>
+      <c r="L20" s="5">
+        <v>20</v>
+      </c>
+      <c r="M20" s="5">
+        <v>14</v>
+      </c>
+      <c r="N20" s="5">
         <v>6</v>
       </c>
-      <c r="L20" s="5">
-        <v>6</v>
-      </c>
-      <c r="M20" s="5">
-        <v>6</v>
-      </c>
-      <c r="N20" s="5">
-        <v>5</v>
-      </c>
       <c r="O20" s="5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P20" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T20" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U20" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V20" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="21.5" customHeight="1">
       <c r="A21" s="4">
         <v>19</v>
       </c>
       <c r="B21" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D21" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E21" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F21" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G21" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I21" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J21" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K21" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L21" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M21" s="5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N21" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O21" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P21" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q21" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R21" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S21" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T21" s="5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U21" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V21" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" ht="21.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="21.5" customHeight="1">
       <c r="A22" s="4">
         <v>20</v>
       </c>
       <c r="B22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C22" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D22" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G22" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H22" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I22" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J22" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S22" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="U22" s="5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V22" s="5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/figures/resources/pixels.xlsx
+++ b/figures/resources/pixels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tischer/Documents/training-resources/figures/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF4F8FE-8341-A940-8BCC-3E66FBB22D76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE6744F-6D20-0F40-ADB1-1FF330FA3A59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{AFB592CA-EABC-C547-8EDD-0658AD58DA5C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{AFB592CA-EABC-C547-8EDD-0658AD58DA5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -113,9 +113,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -434,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55615056-DDA6-7547-9E31-DDAB8BE0B80D}">
   <dimension ref="A1:AA22"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="D1" zoomScale="86" zoomScaleNormal="100" zoomScalePageLayoutView="86" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="86" zoomScaleNormal="100" zoomScalePageLayoutView="86" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="21.5" customHeight="1"/>
@@ -792,7 +789,7 @@
       <c r="C6" s="5">
         <v>2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>2</v>
       </c>
       <c r="E6" s="5">

--- a/figures/resources/pixels.xlsx
+++ b/figures/resources/pixels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tischer/Documents/training-resources/figures/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akhan\training-resources\figures\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE6744F-6D20-0F40-ADB1-1FF330FA3A59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162D4E27-429C-4835-A4F0-C0D0D190517F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{AFB592CA-EABC-C547-8EDD-0658AD58DA5C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" xr2:uid="{AFB592CA-EABC-C547-8EDD-0658AD58DA5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -52,6 +52,18 @@
       <color rgb="FF00B050"/>
       <name val="Courier"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Courier"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Courier"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -114,6 +126,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,19 +447,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55615056-DDA6-7547-9E31-DDAB8BE0B80D}">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AK22"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageLayout" zoomScale="86" zoomScaleNormal="100" zoomScalePageLayoutView="86" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="AJ9" sqref="AJ9:AK9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.5" defaultRowHeight="21.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.5" defaultRowHeight="21.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5" style="1"/>
     <col min="2" max="16384" width="3.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" ht="21.5" customHeight="1">
+    <row r="1" spans="1:37" s="1" customFormat="1" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4"/>
       <c r="B1" s="4">
         <v>0</v>
@@ -507,7 +525,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="21.5" customHeight="1">
+    <row r="2" spans="1:37" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>0</v>
       </c>
@@ -575,7 +593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="21.5" customHeight="1">
+    <row r="3" spans="1:37" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -643,7 +661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="21.5" customHeight="1">
+    <row r="4" spans="1:37" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -711,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="21.5" customHeight="1">
+    <row r="5" spans="1:37" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -778,8 +796,23 @@
       <c r="V5" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" ht="21.5" customHeight="1">
+      <c r="AG5" s="6">
+        <v>48</v>
+      </c>
+      <c r="AH5" s="6">
+        <v>65</v>
+      </c>
+      <c r="AI5" s="6">
+        <v>57</v>
+      </c>
+      <c r="AJ5" s="6">
+        <v>63</v>
+      </c>
+      <c r="AK5" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -846,8 +879,23 @@
       <c r="V6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" ht="21.5" customHeight="1">
+      <c r="AG6" s="6">
+        <v>56</v>
+      </c>
+      <c r="AH6" s="6">
+        <v>73</v>
+      </c>
+      <c r="AI6" s="6">
+        <v>61</v>
+      </c>
+      <c r="AJ6" s="6">
+        <v>60</v>
+      </c>
+      <c r="AK6" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -914,8 +962,23 @@
       <c r="V7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="21.5" customHeight="1">
+      <c r="AG7" s="6">
+        <v>46</v>
+      </c>
+      <c r="AH7" s="6">
+        <v>56</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>57</v>
+      </c>
+      <c r="AJ7" s="6">
+        <v>61</v>
+      </c>
+      <c r="AK7" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>6</v>
       </c>
@@ -982,8 +1045,23 @@
       <c r="V8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="21.5" customHeight="1">
+      <c r="AG8" s="6">
+        <v>54</v>
+      </c>
+      <c r="AH8" s="6">
+        <v>55</v>
+      </c>
+      <c r="AI8" s="6">
+        <v>58</v>
+      </c>
+      <c r="AJ8" s="6">
+        <v>80</v>
+      </c>
+      <c r="AK8" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" ht="21.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -1051,8 +1129,23 @@
         <v>1</v>
       </c>
       <c r="AA9" s="3"/>
-    </row>
-    <row r="10" spans="1:27" ht="21.5" customHeight="1">
+      <c r="AG9" s="6">
+        <v>45</v>
+      </c>
+      <c r="AH9" s="6">
+        <v>68</v>
+      </c>
+      <c r="AI9" s="6">
+        <v>73</v>
+      </c>
+      <c r="AJ9" s="6">
+        <v>74</v>
+      </c>
+      <c r="AK9" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -1120,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="21.5" customHeight="1">
+    <row r="11" spans="1:37" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -1188,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="21.5" customHeight="1">
+    <row r="12" spans="1:37" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>10</v>
       </c>
@@ -1256,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="21.5" customHeight="1">
+    <row r="13" spans="1:37" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1324,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="21.5" customHeight="1">
+    <row r="14" spans="1:37" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1392,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="21.5" customHeight="1">
+    <row r="15" spans="1:37" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1460,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="21.5" customHeight="1">
+    <row r="16" spans="1:37" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -1528,7 +1621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="21.5" customHeight="1">
+    <row r="17" spans="1:22" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -1596,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="21.5" customHeight="1">
+    <row r="18" spans="1:22" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -1664,7 +1757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="21.5" customHeight="1">
+    <row r="19" spans="1:22" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -1732,7 +1825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:22" ht="21.5" customHeight="1">
+    <row r="20" spans="1:22" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>18</v>
       </c>
@@ -1800,7 +1893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:22" ht="21.5" customHeight="1">
+    <row r="21" spans="1:22" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -1868,7 +1961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="21.5" customHeight="1">
+    <row r="22" spans="1:22" ht="21.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -1938,6 +2031,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>